--- a/expt06.xlsx
+++ b/expt06.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Stockton university\Graduate assistantship\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Stockton university\Graduate assistantship\chemistry-experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E075AA0-BC58-4FF7-AE56-5AF6375D520B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A635FCA9-66C0-4134-B264-85034A4D0A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class data" sheetId="1" r:id="rId1"/>
+    <sheet name="complete" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="107">
   <si>
     <t>Chemistry 2115:  General Chemistry Laboratory</t>
   </si>
@@ -424,6 +425,219 @@
   </si>
   <si>
     <t>D-6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.105</t>
+  </si>
+  <si>
+    <t>26.718</t>
+  </si>
+  <si>
+    <t>26.807</t>
+  </si>
+  <si>
+    <t>0.0889999999999986</t>
+  </si>
+  <si>
+    <t>0.00056993974922651</t>
+  </si>
+  <si>
+    <t>0.000609130107453279</t>
+  </si>
+  <si>
+    <t>0.136</t>
+  </si>
+  <si>
+    <t>29.81</t>
+  </si>
+  <si>
+    <t>29.92</t>
+  </si>
+  <si>
+    <t>0.110000000000003</t>
+  </si>
+  <si>
+    <t>0.000738207675188623</t>
+  </si>
+  <si>
+    <t>0.000752857436178242</t>
+  </si>
+  <si>
+    <t>0.122</t>
+  </si>
+  <si>
+    <t>28.843</t>
+  </si>
+  <si>
+    <t>28.943</t>
+  </si>
+  <si>
+    <t>0.100000000000001</t>
+  </si>
+  <si>
+    <t>0.000662215708625088</t>
+  </si>
+  <si>
+    <t>0.00068441585107112</t>
+  </si>
+  <si>
+    <t>0.116</t>
+  </si>
+  <si>
+    <t>30.014</t>
+  </si>
+  <si>
+    <t>30.107</t>
+  </si>
+  <si>
+    <t>0.093</t>
+  </si>
+  <si>
+    <t>0.000629647722955002</t>
+  </si>
+  <si>
+    <t>0.000636506741496133</t>
+  </si>
+  <si>
+    <t>0.161</t>
+  </si>
+  <si>
+    <t>25.565</t>
+  </si>
+  <si>
+    <t>25.69</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>0.000873907615480649</t>
+  </si>
+  <si>
+    <t>0.000855519813838888</t>
+  </si>
+  <si>
+    <t>0.187</t>
+  </si>
+  <si>
+    <t>24.666</t>
+  </si>
+  <si>
+    <t>24.802</t>
+  </si>
+  <si>
+    <t>0.135999999999999</t>
+  </si>
+  <si>
+    <t>0.00101503555338436</t>
+  </si>
+  <si>
+    <t>0.000930805557456705</t>
+  </si>
+  <si>
+    <t>0.205</t>
+  </si>
+  <si>
+    <t>22.372</t>
+  </si>
+  <si>
+    <t>22.53</t>
+  </si>
+  <si>
+    <t>0.158000000000001</t>
+  </si>
+  <si>
+    <t>0.00111273951039462</t>
+  </si>
+  <si>
+    <t>0.00108137704469236</t>
+  </si>
+  <si>
+    <t>0.318</t>
+  </si>
+  <si>
+    <t>29.875</t>
+  </si>
+  <si>
+    <t>30.047</t>
+  </si>
+  <si>
+    <t>0.172000000000001</t>
+  </si>
+  <si>
+    <t>0.00172610324051457</t>
+  </si>
+  <si>
+    <t>0.00117719526384231</t>
+  </si>
+  <si>
+    <t>0.257</t>
+  </si>
+  <si>
+    <t>30.273</t>
+  </si>
+  <si>
+    <t>30.446</t>
+  </si>
+  <si>
+    <t>0.173000000000002</t>
+  </si>
+  <si>
+    <t>0.00139499538620203</t>
+  </si>
+  <si>
+    <t>0.00118403942235303</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>20.785</t>
+  </si>
+  <si>
+    <t>20.962</t>
+  </si>
+  <si>
+    <t>0.177</t>
+  </si>
+  <si>
+    <t>0.00135699940292026</t>
+  </si>
+  <si>
+    <t>0.00121141605639586</t>
+  </si>
+  <si>
+    <t>0.213</t>
+  </si>
+  <si>
+    <t>22.316</t>
+  </si>
+  <si>
+    <t>22.486</t>
+  </si>
+  <si>
+    <t>0.170000000000002</t>
+  </si>
+  <si>
+    <t>0.00115616349128806</t>
+  </si>
+  <si>
+    <t>0.0011635069468209</t>
+  </si>
+  <si>
+    <t>0.219</t>
+  </si>
+  <si>
+    <t>29.898</t>
+  </si>
+  <si>
+    <t>30.07</t>
+  </si>
+  <si>
+    <t>0.00118873147695815</t>
   </si>
 </sst>
 </file>
@@ -565,12 +779,6 @@
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -661,6 +869,12 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -746,451 +960,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'class data'!$G$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38160">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="156082"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Aptos Narrow"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'class data'!$F$11:$F$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="22"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'class data'!$G$11:$G$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000E+00</c:formatCode>
-                <c:ptCount val="22"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-86FB-4FF6-929C-23A4A0E69B03}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="29574861"/>
-        <c:axId val="83045685"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="29574861"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Aptos Narrow"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Aptos Narrow"/>
-                  </a:rPr>
-                  <a:t>moles of pattaium oxolate used </a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.479201331114809"/>
-              <c:y val="0.94820618043897298"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.00000E+00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="BFBFBF"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="83045685"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="83045685"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Aptos Narrow"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Aptos Narrow"/>
-                  </a:rPr>
-                  <a:t>moles of calcium oxolate recovered </a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.00000E+00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="BFBFBF"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="29574861"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
-              <a:solidFill>
-                <a:srgbClr val="595959"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>268920</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>229680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>507600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.89588</cdr:x>
-      <cdr:y>0.48766</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.99991</cdr:x>
-      <cdr:y>0.64839</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C14E04-4B09-4999-9482-9DF4211391AD}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7365600" y="2823480"/>
-          <a:ext cx="855360" cy="930600"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
-          <a:noFill/>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor"/>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>class data</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1371,456 +1140,456 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="4" customWidth="1"/>
-    <col min="3" max="6" width="18.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="18.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="4" customWidth="1"/>
     <col min="8" max="1003" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="20">
+      <c r="A5" s="10"/>
+      <c r="B5" s="18">
         <v>15</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="9"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="27">
         <v>0.105</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="27">
         <v>26.718</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="27">
         <v>26.806999999999999</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="30">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="30">
         <v>29.81</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="30">
         <v>29.92</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="27">
         <v>0.122</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="27">
         <v>28.843</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="27">
         <v>28.943000000000001</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="30">
         <v>0.11600000000000001</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="30">
         <v>30.013999999999999</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="30">
         <v>30.106999999999999</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="30">
         <v>0.161</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="30">
         <v>25.565000000000001</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="30">
         <v>25.69</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="27">
         <v>0.187</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="27">
         <v>24.666</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="27">
         <v>24.802</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="30">
         <v>0.20499999999999999</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="30">
         <v>22.372</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="30">
         <v>22.53</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="27">
         <v>0.318</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="27">
         <v>29.875</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="27">
         <v>30.047000000000001</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="30">
         <v>0.25700000000000001</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="30">
         <v>30.273</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="30">
         <v>30.446000000000002</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="27">
         <v>0.25</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="27">
         <v>20.785</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="27">
         <v>20.962</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="30">
         <v>0.21299999999999999</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="30">
         <v>22.315999999999999</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="30">
         <v>22.486000000000001</v>
       </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="30">
         <v>0.219</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="30">
         <v>29.898</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="30">
         <v>30.07</v>
       </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="34"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1831,10 +1600,696 @@
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="18.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="4" customWidth="1"/>
+    <col min="8" max="1003" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="18">
+        <v>15</v>
+      </c>
+      <c r="C5" s="19">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/expt06.xlsx
+++ b/expt06.xlsx
@@ -10,13 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A635FCA9-66C0-4134-B264-85034A4D0A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="class data" sheetId="1" r:id="rId1"/>
-    <sheet name="complete" sheetId="2" r:id="rId2"/>
+    <sheet name="class data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="complete" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Chemistry 2115:  General Chemistry Laboratory</t>
   </si>
@@ -643,7 +642,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -651,7 +650,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -882,7 +881,6 @@
     <cellStyle name="Result2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1137,7 +1135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1153,7 +1151,7 @@
     <col min="8" max="1003" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18" r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1162,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -1175,7 +1173,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -1184,7 +1182,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="34.5" x14ac:dyDescent="0.35">
+    <row ht="34.5" r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="13" t="s">
         <v>2</v>
@@ -1199,7 +1197,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18">
         <v>15</v>
@@ -1212,7 +1210,7 @@
       <c r="F5" s="21"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -1221,7 +1219,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="35" t="s">
         <v>5</v>
@@ -1234,7 +1232,7 @@
       </c>
       <c r="G7" s="35"/>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+    <row ht="45" r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="23" t="s">
         <v>7</v>
@@ -1255,7 +1253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>12</v>
       </c>
@@ -1266,7 +1264,7 @@
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>13</v>
       </c>
@@ -1277,7 +1275,7 @@
       <c r="F10" s="31"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>14</v>
       </c>
@@ -1294,7 +1292,7 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>15</v>
       </c>
@@ -1311,7 +1309,7 @@
       <c r="F12" s="31"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>16</v>
       </c>
@@ -1328,7 +1326,7 @@
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>17</v>
       </c>
@@ -1345,7 +1343,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>18</v>
       </c>
@@ -1356,7 +1354,7 @@
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>19</v>
       </c>
@@ -1373,7 +1371,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>20</v>
       </c>
@@ -1384,7 +1382,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
         <v>21</v>
       </c>
@@ -1395,7 +1393,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>22</v>
       </c>
@@ -1412,7 +1410,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
         <v>23</v>
       </c>
@@ -1429,7 +1427,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>24</v>
       </c>
@@ -1440,7 +1438,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
         <v>25</v>
       </c>
@@ -1451,7 +1449,7 @@
       <c r="F22" s="31"/>
       <c r="G22" s="32"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>26</v>
       </c>
@@ -1468,7 +1466,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="29" t="s">
         <v>27</v>
       </c>
@@ -1485,7 +1483,7 @@
       <c r="F24" s="31"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
         <v>28</v>
       </c>
@@ -1496,7 +1494,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="29" t="s">
         <v>29</v>
       </c>
@@ -1507,7 +1505,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
         <v>30</v>
       </c>
@@ -1518,7 +1516,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
         <v>31</v>
       </c>
@@ -1529,7 +1527,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
         <v>32</v>
       </c>
@@ -1546,7 +1544,7 @@
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
         <v>33</v>
       </c>
@@ -1563,7 +1561,7 @@
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
         <v>34</v>
       </c>
@@ -1574,7 +1572,7 @@
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
         <v>35</v>
       </c>
@@ -1600,7 +1598,7 @@
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+  <headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="0" alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -1608,11 +1606,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1624,7 +1622,7 @@
     <col min="8" max="1003" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18" r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -1635,7 +1633,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -1646,7 +1644,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -1655,7 +1653,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="34.5" x14ac:dyDescent="0.35">
+    <row ht="34.5" r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="13" t="s">
         <v>2</v>
@@ -1670,7 +1668,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18">
         <v>15</v>
@@ -1683,7 +1681,7 @@
       <c r="F5" s="21"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -1692,7 +1690,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="35" t="s">
         <v>5</v>
@@ -1705,7 +1703,7 @@
       </c>
       <c r="G7" s="35"/>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+    <row ht="45" r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="23" t="s">
         <v>7</v>
@@ -1726,556 +1724,892 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>84</v>
+    <row customHeight="1" ht="18" r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="inlineStr">
+        <is>
+          <t>A-1</t>
+        </is>
+      </c>
+      <c r="B9" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C9" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D9" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E9" s="28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F9" s="28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G9" s="28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="inlineStr">
+        <is>
+          <t>A-2</t>
+        </is>
+      </c>
+      <c r="B10" s="30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C10" s="30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D10" s="30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E10" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F10" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G10" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="inlineStr">
+        <is>
+          <t>A-3</t>
+        </is>
+      </c>
+      <c r="B11" s="27" t="inlineStr">
+        <is>
+          <t>0.105</t>
+        </is>
+      </c>
+      <c r="C11" s="27" t="inlineStr">
+        <is>
+          <t>26.718</t>
+        </is>
+      </c>
+      <c r="D11" s="27" t="inlineStr">
+        <is>
+          <t>26.807</t>
+        </is>
+      </c>
+      <c r="E11" s="28" t="inlineStr">
+        <is>
+          <t>0.0889999999999986</t>
+        </is>
+      </c>
+      <c r="F11" s="33" t="inlineStr">
+        <is>
+          <t>0.00056993974922651</t>
+        </is>
+      </c>
+      <c r="G11" s="33" t="inlineStr">
+        <is>
+          <t>0.000609130107453279</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="inlineStr">
+        <is>
+          <t>A-4</t>
+        </is>
+      </c>
+      <c r="B12" s="30" t="inlineStr">
+        <is>
+          <t>0.136</t>
+        </is>
+      </c>
+      <c r="C12" s="30" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="D12" s="30" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="E12" s="31" t="inlineStr">
+        <is>
+          <t>0.110000000000003</t>
+        </is>
+      </c>
+      <c r="F12" s="31" t="inlineStr">
+        <is>
+          <t>0.000738207675188623</t>
+        </is>
+      </c>
+      <c r="G12" s="32" t="inlineStr">
+        <is>
+          <t>0.000752857436178242</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="inlineStr">
+        <is>
+          <t>A-5</t>
+        </is>
+      </c>
+      <c r="B13" s="27" t="inlineStr">
+        <is>
+          <t>0.122</t>
+        </is>
+      </c>
+      <c r="C13" s="27" t="inlineStr">
+        <is>
+          <t>28.843</t>
+        </is>
+      </c>
+      <c r="D13" s="27" t="inlineStr">
+        <is>
+          <t>28.943</t>
+        </is>
+      </c>
+      <c r="E13" s="28" t="inlineStr">
+        <is>
+          <t>0.100000000000001</t>
+        </is>
+      </c>
+      <c r="F13" s="33" t="inlineStr">
+        <is>
+          <t>0.000662215708625088</t>
+        </is>
+      </c>
+      <c r="G13" s="33" t="inlineStr">
+        <is>
+          <t>0.00068441585107112</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="inlineStr">
+        <is>
+          <t>A-6</t>
+        </is>
+      </c>
+      <c r="B14" s="30" t="inlineStr">
+        <is>
+          <t>0.116</t>
+        </is>
+      </c>
+      <c r="C14" s="30" t="inlineStr">
+        <is>
+          <t>30.014</t>
+        </is>
+      </c>
+      <c r="D14" s="30" t="inlineStr">
+        <is>
+          <t>30.107</t>
+        </is>
+      </c>
+      <c r="E14" s="31" t="inlineStr">
+        <is>
+          <t>0.093</t>
+        </is>
+      </c>
+      <c r="F14" s="31" t="inlineStr">
+        <is>
+          <t>0.000629647722955002</t>
+        </is>
+      </c>
+      <c r="G14" s="32" t="inlineStr">
+        <is>
+          <t>0.000636506741496133</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="inlineStr">
+        <is>
+          <t>B-1</t>
+        </is>
+      </c>
+      <c r="B15" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C15" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D15" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E15" s="28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F15" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G15" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="inlineStr">
+        <is>
+          <t>B-2</t>
+        </is>
+      </c>
+      <c r="B16" s="30" t="inlineStr">
+        <is>
+          <t>0.161</t>
+        </is>
+      </c>
+      <c r="C16" s="30" t="inlineStr">
+        <is>
+          <t>25.565</t>
+        </is>
+      </c>
+      <c r="D16" s="30" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="E16" s="31" t="inlineStr">
+        <is>
+          <t>0.125</t>
+        </is>
+      </c>
+      <c r="F16" s="31" t="inlineStr">
+        <is>
+          <t>0.000873907615480649</t>
+        </is>
+      </c>
+      <c r="G16" s="32" t="inlineStr">
+        <is>
+          <t>0.000855519813838888</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="inlineStr">
+        <is>
+          <t>B-3</t>
+        </is>
+      </c>
+      <c r="B17" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C17" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D17" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E17" s="28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F17" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G17" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="inlineStr">
+        <is>
+          <t>B-4</t>
+        </is>
+      </c>
+      <c r="B18" s="30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C18" s="30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D18" s="30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E18" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F18" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G18" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="inlineStr">
+        <is>
+          <t>B-5</t>
+        </is>
+      </c>
+      <c r="B19" s="27" t="inlineStr">
+        <is>
+          <t>0.187</t>
+        </is>
+      </c>
+      <c r="C19" s="27" t="inlineStr">
+        <is>
+          <t>24.666</t>
+        </is>
+      </c>
+      <c r="D19" s="27" t="inlineStr">
+        <is>
+          <t>24.802</t>
+        </is>
+      </c>
+      <c r="E19" s="28" t="inlineStr">
+        <is>
+          <t>0.135999999999999</t>
+        </is>
+      </c>
+      <c r="F19" s="33" t="inlineStr">
+        <is>
+          <t>0.00101503555338436</t>
+        </is>
+      </c>
+      <c r="G19" s="33" t="inlineStr">
+        <is>
+          <t>0.000930805557456705</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="inlineStr">
+        <is>
+          <t>B-6</t>
+        </is>
+      </c>
+      <c r="B20" s="30" t="inlineStr">
+        <is>
+          <t>0.205</t>
+        </is>
+      </c>
+      <c r="C20" s="30" t="inlineStr">
+        <is>
+          <t>22.372</t>
+        </is>
+      </c>
+      <c r="D20" s="30" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="E20" s="31" t="inlineStr">
+        <is>
+          <t>0.158000000000001</t>
+        </is>
+      </c>
+      <c r="F20" s="31" t="inlineStr">
+        <is>
+          <t>0.00111273951039462</t>
+        </is>
+      </c>
+      <c r="G20" s="32" t="inlineStr">
+        <is>
+          <t>0.00108137704469236</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="inlineStr">
+        <is>
+          <t>C-1</t>
+        </is>
+      </c>
+      <c r="B21" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C21" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D21" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E21" s="28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F21" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G21" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="inlineStr">
+        <is>
+          <t>C-2</t>
+        </is>
+      </c>
+      <c r="B22" s="30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C22" s="30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D22" s="30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E22" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F22" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G22" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="inlineStr">
+        <is>
+          <t>C-3</t>
+        </is>
+      </c>
+      <c r="B23" s="27" t="inlineStr">
+        <is>
+          <t>0.318</t>
+        </is>
+      </c>
+      <c r="C23" s="27" t="inlineStr">
+        <is>
+          <t>29.875</t>
+        </is>
+      </c>
+      <c r="D23" s="27" t="inlineStr">
+        <is>
+          <t>30.047</t>
+        </is>
+      </c>
+      <c r="E23" s="28" t="inlineStr">
+        <is>
+          <t>0.172000000000001</t>
+        </is>
+      </c>
+      <c r="F23" s="33" t="inlineStr">
+        <is>
+          <t>0.00172610324051457</t>
+        </is>
+      </c>
+      <c r="G23" s="33" t="inlineStr">
+        <is>
+          <t>0.00117719526384231</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="inlineStr">
+        <is>
+          <t>C-4</t>
+        </is>
+      </c>
+      <c r="B24" s="30" t="inlineStr">
+        <is>
+          <t>0.257</t>
+        </is>
+      </c>
+      <c r="C24" s="30" t="inlineStr">
+        <is>
+          <t>30.273</t>
+        </is>
+      </c>
+      <c r="D24" s="30" t="inlineStr">
+        <is>
+          <t>30.446</t>
+        </is>
+      </c>
+      <c r="E24" s="31" t="inlineStr">
+        <is>
+          <t>0.173000000000002</t>
+        </is>
+      </c>
+      <c r="F24" s="31" t="inlineStr">
+        <is>
+          <t>0.00139499538620203</t>
+        </is>
+      </c>
+      <c r="G24" s="32" t="inlineStr">
+        <is>
+          <t>0.00118403942235303</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="inlineStr">
+        <is>
+          <t>C-5</t>
+        </is>
+      </c>
+      <c r="B25" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C25" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D25" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E25" s="28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F25" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G25" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="inlineStr">
+        <is>
+          <t>C-6</t>
+        </is>
+      </c>
+      <c r="B26" s="30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C26" s="30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D26" s="30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E26" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F26" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G26" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="inlineStr">
+        <is>
+          <t>D-1</t>
+        </is>
+      </c>
+      <c r="B27" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C27" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D27" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E27" s="28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F27" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G27" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="inlineStr">
+        <is>
+          <t>D-2</t>
+        </is>
+      </c>
+      <c r="B28" s="30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C28" s="30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D28" s="30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E28" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F28" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G28" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="inlineStr">
+        <is>
+          <t>D-3</t>
+        </is>
+      </c>
+      <c r="B29" s="27" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="C29" s="27" t="inlineStr">
+        <is>
+          <t>20.785</t>
+        </is>
+      </c>
+      <c r="D29" s="27" t="inlineStr">
+        <is>
+          <t>20.962</t>
+        </is>
+      </c>
+      <c r="E29" s="28" t="inlineStr">
+        <is>
+          <t>0.177</t>
+        </is>
+      </c>
+      <c r="F29" s="33" t="inlineStr">
+        <is>
+          <t>0.00135699940292026</t>
+        </is>
+      </c>
+      <c r="G29" s="33" t="inlineStr">
+        <is>
+          <t>0.00121141605639586</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="inlineStr">
+        <is>
+          <t>D-4</t>
+        </is>
+      </c>
+      <c r="B30" s="30" t="inlineStr">
+        <is>
+          <t>0.213</t>
+        </is>
+      </c>
+      <c r="C30" s="30" t="inlineStr">
+        <is>
+          <t>22.316</t>
+        </is>
+      </c>
+      <c r="D30" s="30" t="inlineStr">
+        <is>
+          <t>22.486</t>
+        </is>
+      </c>
+      <c r="E30" s="31" t="inlineStr">
+        <is>
+          <t>0.170000000000002</t>
+        </is>
+      </c>
+      <c r="F30" s="31" t="inlineStr">
+        <is>
+          <t>0.00115616349128806</t>
+        </is>
+      </c>
+      <c r="G30" s="32" t="inlineStr">
+        <is>
+          <t>0.0011635069468209</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="26" t="inlineStr">
+        <is>
+          <t>D-5</t>
+        </is>
+      </c>
+      <c r="B31" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C31" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D31" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E31" s="28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F31" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G31" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="29" t="inlineStr">
+        <is>
+          <t>D-6</t>
+        </is>
+      </c>
+      <c r="B32" s="30" t="inlineStr">
+        <is>
+          <t>0.219</t>
+        </is>
+      </c>
+      <c r="C32" s="30" t="inlineStr">
+        <is>
+          <t>29.898</t>
+        </is>
+      </c>
+      <c r="D32" s="30" t="inlineStr">
+        <is>
+          <t>30.07</t>
+        </is>
+      </c>
+      <c r="E32" s="31" t="inlineStr">
+        <is>
+          <t>0.172000000000001</t>
+        </is>
+      </c>
+      <c r="F32" s="31" t="inlineStr">
+        <is>
+          <t>0.00118873147695815</t>
+        </is>
+      </c>
+      <c r="G32" s="32" t="inlineStr">
+        <is>
+          <t>0.00117719526384231</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2287,7 +2621,7 @@
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+  <headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="0" alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/expt06.xlsx
+++ b/expt06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Stockton university\Graduate assistantship\chemistry-experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A635FCA9-66C0-4134-B264-85034A4D0A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C028A02-1780-41EA-A93C-DCA017A84D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class data" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Chemistry 2115:  General Chemistry Laboratory</t>
   </si>
@@ -424,219 +424,6 @@
   </si>
   <si>
     <t>D-6</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.105</t>
-  </si>
-  <si>
-    <t>26.718</t>
-  </si>
-  <si>
-    <t>26.807</t>
-  </si>
-  <si>
-    <t>0.0889999999999986</t>
-  </si>
-  <si>
-    <t>0.00056993974922651</t>
-  </si>
-  <si>
-    <t>0.000609130107453279</t>
-  </si>
-  <si>
-    <t>0.136</t>
-  </si>
-  <si>
-    <t>29.81</t>
-  </si>
-  <si>
-    <t>29.92</t>
-  </si>
-  <si>
-    <t>0.110000000000003</t>
-  </si>
-  <si>
-    <t>0.000738207675188623</t>
-  </si>
-  <si>
-    <t>0.000752857436178242</t>
-  </si>
-  <si>
-    <t>0.122</t>
-  </si>
-  <si>
-    <t>28.843</t>
-  </si>
-  <si>
-    <t>28.943</t>
-  </si>
-  <si>
-    <t>0.100000000000001</t>
-  </si>
-  <si>
-    <t>0.000662215708625088</t>
-  </si>
-  <si>
-    <t>0.00068441585107112</t>
-  </si>
-  <si>
-    <t>0.116</t>
-  </si>
-  <si>
-    <t>30.014</t>
-  </si>
-  <si>
-    <t>30.107</t>
-  </si>
-  <si>
-    <t>0.093</t>
-  </si>
-  <si>
-    <t>0.000629647722955002</t>
-  </si>
-  <si>
-    <t>0.000636506741496133</t>
-  </si>
-  <si>
-    <t>0.161</t>
-  </si>
-  <si>
-    <t>25.565</t>
-  </si>
-  <si>
-    <t>25.69</t>
-  </si>
-  <si>
-    <t>0.125</t>
-  </si>
-  <si>
-    <t>0.000873907615480649</t>
-  </si>
-  <si>
-    <t>0.000855519813838888</t>
-  </si>
-  <si>
-    <t>0.187</t>
-  </si>
-  <si>
-    <t>24.666</t>
-  </si>
-  <si>
-    <t>24.802</t>
-  </si>
-  <si>
-    <t>0.135999999999999</t>
-  </si>
-  <si>
-    <t>0.00101503555338436</t>
-  </si>
-  <si>
-    <t>0.000930805557456705</t>
-  </si>
-  <si>
-    <t>0.205</t>
-  </si>
-  <si>
-    <t>22.372</t>
-  </si>
-  <si>
-    <t>22.53</t>
-  </si>
-  <si>
-    <t>0.158000000000001</t>
-  </si>
-  <si>
-    <t>0.00111273951039462</t>
-  </si>
-  <si>
-    <t>0.00108137704469236</t>
-  </si>
-  <si>
-    <t>0.318</t>
-  </si>
-  <si>
-    <t>29.875</t>
-  </si>
-  <si>
-    <t>30.047</t>
-  </si>
-  <si>
-    <t>0.172000000000001</t>
-  </si>
-  <si>
-    <t>0.00172610324051457</t>
-  </si>
-  <si>
-    <t>0.00117719526384231</t>
-  </si>
-  <si>
-    <t>0.257</t>
-  </si>
-  <si>
-    <t>30.273</t>
-  </si>
-  <si>
-    <t>30.446</t>
-  </si>
-  <si>
-    <t>0.173000000000002</t>
-  </si>
-  <si>
-    <t>0.00139499538620203</t>
-  </si>
-  <si>
-    <t>0.00118403942235303</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>20.785</t>
-  </si>
-  <si>
-    <t>20.962</t>
-  </si>
-  <si>
-    <t>0.177</t>
-  </si>
-  <si>
-    <t>0.00135699940292026</t>
-  </si>
-  <si>
-    <t>0.00121141605639586</t>
-  </si>
-  <si>
-    <t>0.213</t>
-  </si>
-  <si>
-    <t>22.316</t>
-  </si>
-  <si>
-    <t>22.486</t>
-  </si>
-  <si>
-    <t>0.170000000000002</t>
-  </si>
-  <si>
-    <t>0.00115616349128806</t>
-  </si>
-  <si>
-    <t>0.0011635069468209</t>
-  </si>
-  <si>
-    <t>0.219</t>
-  </si>
-  <si>
-    <t>29.898</t>
-  </si>
-  <si>
-    <t>30.07</t>
-  </si>
-  <si>
-    <t>0.00118873147695815</t>
   </si>
 </sst>
 </file>
@@ -1138,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1609,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/expt06.xlsx
+++ b/expt06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Stockton university\Graduate assistantship\chemistry-experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C028A02-1780-41EA-A93C-DCA017A84D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4928CA-5B3D-43F5-8926-CCB76D618D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -926,7 +926,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1397,7 +1397,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1608,17 +1608,17 @@
       </c>
       <c r="E11" s="28" t="inlineStr">
         <is>
-          <t>0.0889999999999986</t>
+          <t>0.089</t>
         </is>
       </c>
       <c r="F11" s="33" t="inlineStr">
         <is>
-          <t>0.00056993974922651</t>
+          <t>0.00056994</t>
         </is>
       </c>
       <c r="G11" s="33" t="inlineStr">
         <is>
-          <t>0.000609130107453279</t>
+          <t>0.00060913</t>
         </is>
       </c>
     </row>
@@ -1645,17 +1645,17 @@
       </c>
       <c r="E12" s="31" t="inlineStr">
         <is>
-          <t>0.110000000000003</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="F12" s="31" t="inlineStr">
         <is>
-          <t>0.000738207675188623</t>
+          <t>0.000738208</t>
         </is>
       </c>
       <c r="G12" s="32" t="inlineStr">
         <is>
-          <t>0.000752857436178242</t>
+          <t>0.000752857</t>
         </is>
       </c>
     </row>
@@ -1682,17 +1682,17 @@
       </c>
       <c r="E13" s="28" t="inlineStr">
         <is>
-          <t>0.100000000000001</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F13" s="33" t="inlineStr">
         <is>
-          <t>0.000662215708625088</t>
+          <t>0.000662216</t>
         </is>
       </c>
       <c r="G13" s="33" t="inlineStr">
         <is>
-          <t>0.00068441585107112</t>
+          <t>0.000684416</t>
         </is>
       </c>
     </row>
@@ -1724,12 +1724,12 @@
       </c>
       <c r="F14" s="31" t="inlineStr">
         <is>
-          <t>0.000629647722955002</t>
+          <t>0.000629648</t>
         </is>
       </c>
       <c r="G14" s="32" t="inlineStr">
         <is>
-          <t>0.000636506741496133</t>
+          <t>0.000636507</t>
         </is>
       </c>
     </row>
@@ -1798,12 +1798,12 @@
       </c>
       <c r="F16" s="31" t="inlineStr">
         <is>
-          <t>0.000873907615480649</t>
+          <t>0.000873908</t>
         </is>
       </c>
       <c r="G16" s="32" t="inlineStr">
         <is>
-          <t>0.000855519813838888</t>
+          <t>0.00085552</t>
         </is>
       </c>
     </row>
@@ -1904,17 +1904,17 @@
       </c>
       <c r="E19" s="28" t="inlineStr">
         <is>
-          <t>0.135999999999999</t>
+          <t>0.136</t>
         </is>
       </c>
       <c r="F19" s="33" t="inlineStr">
         <is>
-          <t>0.00101503555338436</t>
+          <t>0.001015036</t>
         </is>
       </c>
       <c r="G19" s="33" t="inlineStr">
         <is>
-          <t>0.000930805557456705</t>
+          <t>0.000930806</t>
         </is>
       </c>
     </row>
@@ -1941,17 +1941,17 @@
       </c>
       <c r="E20" s="31" t="inlineStr">
         <is>
-          <t>0.158000000000001</t>
+          <t>0.158</t>
         </is>
       </c>
       <c r="F20" s="31" t="inlineStr">
         <is>
-          <t>0.00111273951039462</t>
+          <t>0.00111274</t>
         </is>
       </c>
       <c r="G20" s="32" t="inlineStr">
         <is>
-          <t>0.00108137704469236</t>
+          <t>0.001081377</t>
         </is>
       </c>
     </row>
@@ -2052,17 +2052,17 @@
       </c>
       <c r="E23" s="28" t="inlineStr">
         <is>
-          <t>0.172000000000001</t>
+          <t>0.172</t>
         </is>
       </c>
       <c r="F23" s="33" t="inlineStr">
         <is>
-          <t>0.00172610324051457</t>
+          <t>0.001726103</t>
         </is>
       </c>
       <c r="G23" s="33" t="inlineStr">
         <is>
-          <t>0.00117719526384231</t>
+          <t>0.001177195</t>
         </is>
       </c>
     </row>
@@ -2089,17 +2089,17 @@
       </c>
       <c r="E24" s="31" t="inlineStr">
         <is>
-          <t>0.173000000000002</t>
+          <t>0.173</t>
         </is>
       </c>
       <c r="F24" s="31" t="inlineStr">
         <is>
-          <t>0.00139499538620203</t>
+          <t>0.001394995</t>
         </is>
       </c>
       <c r="G24" s="32" t="inlineStr">
         <is>
-          <t>0.00118403942235303</t>
+          <t>0.001184039</t>
         </is>
       </c>
     </row>
@@ -2279,12 +2279,12 @@
       </c>
       <c r="F29" s="33" t="inlineStr">
         <is>
-          <t>0.00135699940292026</t>
+          <t>0.001356999</t>
         </is>
       </c>
       <c r="G29" s="33" t="inlineStr">
         <is>
-          <t>0.00121141605639586</t>
+          <t>0.001211416</t>
         </is>
       </c>
     </row>
@@ -2311,17 +2311,17 @@
       </c>
       <c r="E30" s="31" t="inlineStr">
         <is>
-          <t>0.170000000000002</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="F30" s="31" t="inlineStr">
         <is>
-          <t>0.00115616349128806</t>
+          <t>0.001156163</t>
         </is>
       </c>
       <c r="G30" s="32" t="inlineStr">
         <is>
-          <t>0.0011635069468209</t>
+          <t>0.001163507</t>
         </is>
       </c>
     </row>
@@ -2385,17 +2385,17 @@
       </c>
       <c r="E32" s="31" t="inlineStr">
         <is>
-          <t>0.172000000000001</t>
+          <t>0.172</t>
         </is>
       </c>
       <c r="F32" s="31" t="inlineStr">
         <is>
-          <t>0.00118873147695815</t>
+          <t>0.001188731</t>
         </is>
       </c>
       <c r="G32" s="32" t="inlineStr">
         <is>
-          <t>0.00117719526384231</t>
+          <t>0.001177195</t>
         </is>
       </c>
     </row>

--- a/expt06.xlsx
+++ b/expt06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Stockton university\Graduate assistantship\chemistry-experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4928CA-5B3D-43F5-8926-CCB76D618D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D60FBF4-F1AC-43AF-BE8E-A4548EE92F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -926,7 +926,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1397,7 +1397,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/expt06.xlsx
+++ b/expt06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Stockton university\Graduate assistantship\chemistry-experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D60FBF4-F1AC-43AF-BE8E-A4548EE92F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333D2B85-ED14-489D-AD92-FD23D0677F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Chemistry 2115:  General Chemistry Laboratory</t>
   </si>
@@ -424,6 +424,33 @@
   </si>
   <si>
     <t>D-6</t>
+  </si>
+  <si>
+    <t>26.718</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.079</t>
+  </si>
+  <si>
+    <t>25.005</t>
+  </si>
+  <si>
+    <t>-25.005</t>
+  </si>
+  <si>
+    <t>25.001</t>
+  </si>
+  <si>
+    <t>-25.001</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
 </sst>
 </file>
@@ -563,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -635,18 +662,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,6 +675,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -925,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH5" sqref="AH5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -939,23 +969,23 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="18" r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
     </row>
     <row customHeight="1" ht="18" r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
@@ -1008,16 +1038,16 @@
     </row>
     <row customHeight="1" ht="18" r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="35"/>
+      <c r="G7" s="36"/>
     </row>
     <row ht="45" r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
@@ -1044,337 +1074,300 @@
       <c r="A9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
     <row customHeight="1" ht="18" r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
     </row>
     <row customHeight="1" ht="18" r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="27">
-        <v>0.105</v>
-      </c>
-      <c r="C11" s="27">
-        <v>26.718</v>
-      </c>
-      <c r="D11" s="27">
-        <v>26.806999999999999</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
+      <c r="B11" s="34">
+        <v>-0.05</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
     </row>
     <row customHeight="1" ht="18" r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="30">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C12" s="30">
-        <v>29.81</v>
-      </c>
-      <c r="D12" s="30">
-        <v>29.92</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
     </row>
     <row customHeight="1" ht="18" r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="27">
-        <v>0.122</v>
-      </c>
-      <c r="C13" s="27">
-        <v>28.843</v>
-      </c>
-      <c r="D13" s="27">
-        <v>28.943000000000001</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row customHeight="1" ht="18" r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="30">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C14" s="30">
-        <v>30.013999999999999</v>
-      </c>
-      <c r="D14" s="30">
-        <v>30.106999999999999</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
     </row>
     <row customHeight="1" ht="18" r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row customHeight="1" ht="18" r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="30">
-        <v>0.161</v>
-      </c>
-      <c r="C16" s="30">
-        <v>25.565000000000001</v>
-      </c>
-      <c r="D16" s="30">
-        <v>25.69</v>
-      </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
     </row>
     <row customHeight="1" ht="18" r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
     </row>
     <row customHeight="1" ht="18" r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
     </row>
     <row customHeight="1" ht="18" r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="27">
-        <v>0.187</v>
-      </c>
-      <c r="C19" s="27">
-        <v>24.666</v>
-      </c>
-      <c r="D19" s="27">
-        <v>24.802</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
     </row>
     <row customHeight="1" ht="18" r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="30">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="C20" s="30">
-        <v>22.372</v>
-      </c>
-      <c r="D20" s="30">
-        <v>22.53</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
     </row>
     <row customHeight="1" ht="18" r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
     </row>
     <row customHeight="1" ht="18" r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
     </row>
     <row customHeight="1" ht="18" r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="27">
-        <v>0.318</v>
-      </c>
-      <c r="C23" s="27">
-        <v>29.875</v>
-      </c>
-      <c r="D23" s="27">
-        <v>30.047000000000001</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
     </row>
     <row customHeight="1" ht="18" r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="30">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="C24" s="30">
-        <v>30.273</v>
-      </c>
-      <c r="D24" s="30">
-        <v>30.446000000000002</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
     </row>
     <row customHeight="1" ht="18" r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
     </row>
     <row customHeight="1" ht="18" r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
     </row>
     <row customHeight="1" ht="18" r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
     </row>
     <row customHeight="1" ht="18" r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
     </row>
     <row customHeight="1" ht="18" r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="C29" s="27">
-        <v>20.785</v>
-      </c>
-      <c r="D29" s="27">
-        <v>20.962</v>
-      </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
     </row>
     <row customHeight="1" ht="18" r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="30">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="C30" s="30">
-        <v>22.315999999999999</v>
-      </c>
-      <c r="D30" s="30">
-        <v>22.486000000000001</v>
-      </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
     </row>
     <row customHeight="1" ht="18" r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
     </row>
     <row customHeight="1" ht="18" r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="30">
-        <v>0.219</v>
-      </c>
-      <c r="C32" s="30">
-        <v>29.898</v>
-      </c>
-      <c r="D32" s="30">
-        <v>30.07</v>
-      </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
+      <c r="B32" s="33">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="33">
+        <v>26.801511822178799</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1396,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH5" sqref="AH5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1410,23 +1403,23 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="18" r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
     </row>
     <row customHeight="1" ht="18" r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
@@ -1479,16 +1472,16 @@
     </row>
     <row customHeight="1" ht="18" r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="35"/>
+      <c r="G7" s="36"/>
     </row>
     <row ht="45" r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
@@ -1517,69 +1510,69 @@
           <t>A-1</t>
         </is>
       </c>
-      <c r="B9" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C9" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E9" s="28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F9" s="28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G9" s="28" t="inlineStr">
+      <c r="B9" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C9" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D9" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E9" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F9" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G9" s="27" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="18" r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="inlineStr">
+      <c r="A10" s="28" t="inlineStr">
         <is>
           <t>A-2</t>
         </is>
       </c>
-      <c r="B10" s="30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C10" s="30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E10" s="31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F10" s="31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G10" s="32" t="inlineStr">
+      <c r="B10" s="33" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="C10" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D10" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E10" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F10" s="29" t="inlineStr">
+        <is>
+          <t>0.00043424</t>
+        </is>
+      </c>
+      <c r="G10" s="30" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1591,71 +1584,71 @@
           <t>A-3</t>
         </is>
       </c>
-      <c r="B11" s="27" t="inlineStr">
-        <is>
-          <t>0.105</t>
-        </is>
-      </c>
-      <c r="C11" s="27" t="inlineStr">
-        <is>
-          <t>26.718</t>
-        </is>
-      </c>
-      <c r="D11" s="27" t="inlineStr">
-        <is>
-          <t>26.807</t>
-        </is>
-      </c>
-      <c r="E11" s="28" t="inlineStr">
-        <is>
-          <t>0.089</t>
-        </is>
-      </c>
-      <c r="F11" s="33" t="inlineStr">
-        <is>
-          <t>0.00056994</t>
-        </is>
-      </c>
-      <c r="G11" s="33" t="inlineStr">
-        <is>
-          <t>0.00060913</t>
+      <c r="B11" s="34" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="C11" s="34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D11" s="34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E11" s="26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F11" s="26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G11" s="26" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="18" r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="inlineStr">
+      <c r="A12" s="28" t="inlineStr">
         <is>
           <t>A-4</t>
         </is>
       </c>
-      <c r="B12" s="30" t="inlineStr">
-        <is>
-          <t>0.136</t>
-        </is>
-      </c>
-      <c r="C12" s="30" t="inlineStr">
-        <is>
-          <t>29.81</t>
-        </is>
-      </c>
-      <c r="D12" s="30" t="inlineStr">
-        <is>
-          <t>29.92</t>
-        </is>
-      </c>
-      <c r="E12" s="31" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="F12" s="31" t="inlineStr">
-        <is>
-          <t>0.000738208</t>
-        </is>
-      </c>
-      <c r="G12" s="32" t="inlineStr">
-        <is>
-          <t>0.000752857</t>
+      <c r="B12" s="33" t="inlineStr">
+        <is>
+          <t>0.079</t>
+        </is>
+      </c>
+      <c r="C12" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D12" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E12" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F12" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G12" s="30" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1665,71 +1658,71 @@
           <t>A-5</t>
         </is>
       </c>
-      <c r="B13" s="27" t="inlineStr">
-        <is>
-          <t>0.122</t>
-        </is>
-      </c>
-      <c r="C13" s="27" t="inlineStr">
-        <is>
-          <t>28.843</t>
-        </is>
-      </c>
-      <c r="D13" s="27" t="inlineStr">
-        <is>
-          <t>28.943</t>
-        </is>
-      </c>
-      <c r="E13" s="28" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="F13" s="33" t="inlineStr">
-        <is>
-          <t>0.000662216</t>
-        </is>
-      </c>
-      <c r="G13" s="33" t="inlineStr">
-        <is>
-          <t>0.000684416</t>
+      <c r="B13" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C13" s="32" t="inlineStr">
+        <is>
+          <t>25.005</t>
+        </is>
+      </c>
+      <c r="D13" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E13" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F13" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G13" s="31" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="18" r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="inlineStr">
+      <c r="A14" s="28" t="inlineStr">
         <is>
           <t>A-6</t>
         </is>
       </c>
-      <c r="B14" s="30" t="inlineStr">
-        <is>
-          <t>0.116</t>
-        </is>
-      </c>
-      <c r="C14" s="30" t="inlineStr">
-        <is>
-          <t>30.014</t>
-        </is>
-      </c>
-      <c r="D14" s="30" t="inlineStr">
-        <is>
-          <t>30.107</t>
-        </is>
-      </c>
-      <c r="E14" s="31" t="inlineStr">
-        <is>
-          <t>0.093</t>
-        </is>
-      </c>
-      <c r="F14" s="31" t="inlineStr">
-        <is>
-          <t>0.000629648</t>
-        </is>
-      </c>
-      <c r="G14" s="32" t="inlineStr">
-        <is>
-          <t>0.000636507</t>
+      <c r="B14" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C14" s="33" t="inlineStr">
+        <is>
+          <t>-25.005</t>
+        </is>
+      </c>
+      <c r="D14" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E14" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F14" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G14" s="30" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1739,71 +1732,71 @@
           <t>B-1</t>
         </is>
       </c>
-      <c r="B15" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C15" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E15" s="28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F15" s="33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G15" s="33" t="inlineStr">
+      <c r="B15" s="34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C15" s="34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D15" s="34" t="inlineStr">
+        <is>
+          <t>25.001</t>
+        </is>
+      </c>
+      <c r="E15" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F15" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G15" s="31" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="18" r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="inlineStr">
+      <c r="A16" s="28" t="inlineStr">
         <is>
           <t>B-2</t>
         </is>
       </c>
-      <c r="B16" s="30" t="inlineStr">
-        <is>
-          <t>0.161</t>
-        </is>
-      </c>
-      <c r="C16" s="30" t="inlineStr">
-        <is>
-          <t>25.565</t>
-        </is>
-      </c>
-      <c r="D16" s="30" t="inlineStr">
-        <is>
-          <t>25.69</t>
-        </is>
-      </c>
-      <c r="E16" s="31" t="inlineStr">
-        <is>
-          <t>0.125</t>
-        </is>
-      </c>
-      <c r="F16" s="31" t="inlineStr">
-        <is>
-          <t>0.000873908</t>
-        </is>
-      </c>
-      <c r="G16" s="32" t="inlineStr">
-        <is>
-          <t>0.00085552</t>
+      <c r="B16" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C16" s="33" t="inlineStr">
+        <is>
+          <t>-25.005</t>
+        </is>
+      </c>
+      <c r="D16" s="33" t="inlineStr">
+        <is>
+          <t>25.001</t>
+        </is>
+      </c>
+      <c r="E16" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F16" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G16" s="30" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1813,69 +1806,69 @@
           <t>B-3</t>
         </is>
       </c>
-      <c r="B17" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C17" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E17" s="28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F17" s="33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G17" s="33" t="inlineStr">
+      <c r="B17" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C17" s="32" t="inlineStr">
+        <is>
+          <t>-25.005</t>
+        </is>
+      </c>
+      <c r="D17" s="32" t="inlineStr">
+        <is>
+          <t>-25.001</t>
+        </is>
+      </c>
+      <c r="E17" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F17" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G17" s="31" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="18" r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="inlineStr">
+      <c r="A18" s="28" t="inlineStr">
         <is>
           <t>B-4</t>
         </is>
       </c>
-      <c r="B18" s="30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C18" s="30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E18" s="31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F18" s="31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G18" s="32" t="inlineStr">
+      <c r="B18" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C18" s="33" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D18" s="33" t="inlineStr">
+        <is>
+          <t>25.001</t>
+        </is>
+      </c>
+      <c r="E18" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F18" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G18" s="30" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1887,71 +1880,71 @@
           <t>B-5</t>
         </is>
       </c>
-      <c r="B19" s="27" t="inlineStr">
-        <is>
-          <t>0.187</t>
-        </is>
-      </c>
-      <c r="C19" s="27" t="inlineStr">
-        <is>
-          <t>24.666</t>
-        </is>
-      </c>
-      <c r="D19" s="27" t="inlineStr">
-        <is>
-          <t>24.802</t>
-        </is>
-      </c>
-      <c r="E19" s="28" t="inlineStr">
-        <is>
-          <t>0.136</t>
-        </is>
-      </c>
-      <c r="F19" s="33" t="inlineStr">
-        <is>
-          <t>0.001015036</t>
-        </is>
-      </c>
-      <c r="G19" s="33" t="inlineStr">
-        <is>
-          <t>0.000930806</t>
+      <c r="B19" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C19" s="32" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D19" s="32" t="inlineStr">
+        <is>
+          <t>-25.001</t>
+        </is>
+      </c>
+      <c r="E19" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F19" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G19" s="31" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="18" r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="inlineStr">
+      <c r="A20" s="28" t="inlineStr">
         <is>
           <t>B-6</t>
         </is>
       </c>
-      <c r="B20" s="30" t="inlineStr">
-        <is>
-          <t>0.205</t>
-        </is>
-      </c>
-      <c r="C20" s="30" t="inlineStr">
-        <is>
-          <t>22.372</t>
-        </is>
-      </c>
-      <c r="D20" s="30" t="inlineStr">
-        <is>
-          <t>22.53</t>
-        </is>
-      </c>
-      <c r="E20" s="31" t="inlineStr">
-        <is>
-          <t>0.158</t>
-        </is>
-      </c>
-      <c r="F20" s="31" t="inlineStr">
-        <is>
-          <t>0.00111274</t>
-        </is>
-      </c>
-      <c r="G20" s="32" t="inlineStr">
-        <is>
-          <t>0.001081377</t>
+      <c r="B20" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C20" s="33" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D20" s="33" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E20" s="29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F20" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G20" s="30" t="inlineStr">
+        <is>
+          <t>0.006844159</t>
         </is>
       </c>
     </row>
@@ -1961,69 +1954,69 @@
           <t>C-1</t>
         </is>
       </c>
-      <c r="B21" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C21" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E21" s="28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F21" s="33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G21" s="33" t="inlineStr">
+      <c r="B21" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C21" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D21" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E21" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F21" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G21" s="31" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="18" r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="inlineStr">
+      <c r="A22" s="28" t="inlineStr">
         <is>
           <t>C-2</t>
         </is>
       </c>
-      <c r="B22" s="30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C22" s="30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E22" s="31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F22" s="31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G22" s="32" t="inlineStr">
+      <c r="B22" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C22" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D22" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E22" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F22" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G22" s="30" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2035,71 +2028,71 @@
           <t>C-3</t>
         </is>
       </c>
-      <c r="B23" s="27" t="inlineStr">
-        <is>
-          <t>0.318</t>
-        </is>
-      </c>
-      <c r="C23" s="27" t="inlineStr">
-        <is>
-          <t>29.875</t>
-        </is>
-      </c>
-      <c r="D23" s="27" t="inlineStr">
-        <is>
-          <t>30.047</t>
-        </is>
-      </c>
-      <c r="E23" s="28" t="inlineStr">
-        <is>
-          <t>0.172</t>
-        </is>
-      </c>
-      <c r="F23" s="33" t="inlineStr">
-        <is>
-          <t>0.001726103</t>
-        </is>
-      </c>
-      <c r="G23" s="33" t="inlineStr">
-        <is>
-          <t>0.001177195</t>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E23" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F23" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G23" s="31" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="18" r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="inlineStr">
+      <c r="A24" s="28" t="inlineStr">
         <is>
           <t>C-4</t>
         </is>
       </c>
-      <c r="B24" s="30" t="inlineStr">
-        <is>
-          <t>0.257</t>
-        </is>
-      </c>
-      <c r="C24" s="30" t="inlineStr">
-        <is>
-          <t>30.273</t>
-        </is>
-      </c>
-      <c r="D24" s="30" t="inlineStr">
-        <is>
-          <t>30.446</t>
-        </is>
-      </c>
-      <c r="E24" s="31" t="inlineStr">
-        <is>
-          <t>0.173</t>
-        </is>
-      </c>
-      <c r="F24" s="31" t="inlineStr">
-        <is>
-          <t>0.001394995</t>
-        </is>
-      </c>
-      <c r="G24" s="32" t="inlineStr">
-        <is>
-          <t>0.001184039</t>
+      <c r="B24" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C24" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D24" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E24" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F24" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G24" s="30" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2109,69 +2102,69 @@
           <t>C-5</t>
         </is>
       </c>
-      <c r="B25" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C25" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E25" s="28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F25" s="33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G25" s="33" t="inlineStr">
+      <c r="B25" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C25" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D25" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E25" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F25" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G25" s="31" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="18" r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="inlineStr">
+      <c r="A26" s="28" t="inlineStr">
         <is>
           <t>C-6</t>
         </is>
       </c>
-      <c r="B26" s="30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C26" s="30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E26" s="31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F26" s="31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G26" s="32" t="inlineStr">
+      <c r="B26" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C26" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D26" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E26" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F26" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G26" s="30" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2183,69 +2176,69 @@
           <t>D-1</t>
         </is>
       </c>
-      <c r="B27" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C27" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E27" s="28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F27" s="33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G27" s="33" t="inlineStr">
+      <c r="B27" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C27" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D27" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E27" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F27" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G27" s="31" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="18" r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="inlineStr">
+      <c r="A28" s="28" t="inlineStr">
         <is>
           <t>D-2</t>
         </is>
       </c>
-      <c r="B28" s="30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C28" s="30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E28" s="31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F28" s="31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G28" s="32" t="inlineStr">
+      <c r="B28" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C28" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D28" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E28" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F28" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G28" s="30" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2257,71 +2250,71 @@
           <t>D-3</t>
         </is>
       </c>
-      <c r="B29" s="27" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="C29" s="27" t="inlineStr">
-        <is>
-          <t>20.785</t>
-        </is>
-      </c>
-      <c r="D29" s="27" t="inlineStr">
-        <is>
-          <t>20.962</t>
-        </is>
-      </c>
-      <c r="E29" s="28" t="inlineStr">
-        <is>
-          <t>0.177</t>
-        </is>
-      </c>
-      <c r="F29" s="33" t="inlineStr">
-        <is>
-          <t>0.001356999</t>
-        </is>
-      </c>
-      <c r="G29" s="33" t="inlineStr">
-        <is>
-          <t>0.001211416</t>
+      <c r="B29" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C29" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D29" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E29" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F29" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G29" s="31" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="18" r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="inlineStr">
+      <c r="A30" s="28" t="inlineStr">
         <is>
           <t>D-4</t>
         </is>
       </c>
-      <c r="B30" s="30" t="inlineStr">
-        <is>
-          <t>0.213</t>
-        </is>
-      </c>
-      <c r="C30" s="30" t="inlineStr">
-        <is>
-          <t>22.316</t>
-        </is>
-      </c>
-      <c r="D30" s="30" t="inlineStr">
-        <is>
-          <t>22.486</t>
-        </is>
-      </c>
-      <c r="E30" s="31" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="F30" s="31" t="inlineStr">
-        <is>
-          <t>0.001156163</t>
-        </is>
-      </c>
-      <c r="G30" s="32" t="inlineStr">
-        <is>
-          <t>0.001163507</t>
+      <c r="B30" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C30" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D30" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E30" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F30" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G30" s="30" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2331,71 +2324,71 @@
           <t>D-5</t>
         </is>
       </c>
-      <c r="B31" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C31" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E31" s="28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F31" s="33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G31" s="33" t="inlineStr">
+      <c r="B31" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C31" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D31" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E31" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F31" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G31" s="31" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="18" r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="inlineStr">
+      <c r="A32" s="28" t="inlineStr">
         <is>
           <t>D-6</t>
         </is>
       </c>
-      <c r="B32" s="30" t="inlineStr">
-        <is>
-          <t>0.219</t>
-        </is>
-      </c>
-      <c r="C32" s="30" t="inlineStr">
-        <is>
-          <t>29.898</t>
-        </is>
-      </c>
-      <c r="D32" s="30" t="inlineStr">
-        <is>
-          <t>30.07</t>
-        </is>
-      </c>
-      <c r="E32" s="31" t="inlineStr">
-        <is>
-          <t>0.172</t>
-        </is>
-      </c>
-      <c r="F32" s="31" t="inlineStr">
-        <is>
-          <t>0.001188731</t>
-        </is>
-      </c>
-      <c r="G32" s="32" t="inlineStr">
-        <is>
-          <t>0.001177195</t>
+      <c r="B32" s="33" t="inlineStr">
+        <is>
+          <t>0.081</t>
+        </is>
+      </c>
+      <c r="C32" s="33" t="inlineStr">
+        <is>
+          <t>26.718</t>
+        </is>
+      </c>
+      <c r="D32" s="33" t="inlineStr">
+        <is>
+          <t>26.8015118221788</t>
+        </is>
+      </c>
+      <c r="E32" s="29" t="inlineStr">
+        <is>
+          <t>0.083511822</t>
+        </is>
+      </c>
+      <c r="F32" s="29" t="inlineStr">
+        <is>
+          <t>0.000439668</t>
+        </is>
+      </c>
+      <c r="G32" s="30" t="inlineStr">
+        <is>
+          <t>0.000571568</t>
         </is>
       </c>
     </row>

--- a/expt06.xlsx
+++ b/expt06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Stockton university\Graduate assistantship\chemistry-experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333D2B85-ED14-489D-AD92-FD23D0677F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1723829-E454-48E7-9BD7-0CAE2F3B8BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Chemistry 2115:  General Chemistry Laboratory</t>
   </si>
@@ -424,33 +424,6 @@
   </si>
   <si>
     <t>D-6</t>
-  </si>
-  <si>
-    <t>26.718</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.079</t>
-  </si>
-  <si>
-    <t>25.005</t>
-  </si>
-  <si>
-    <t>-25.005</t>
-  </si>
-  <si>
-    <t>25.001</t>
-  </si>
-  <si>
-    <t>-25.001</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
   </si>
 </sst>
 </file>
@@ -955,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1085,9 +1058,7 @@
       <c r="A10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>37</v>
-      </c>
+      <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="29"/>
@@ -1099,10 +1070,14 @@
         <v>14</v>
       </c>
       <c r="B11" s="34">
-        <v>-0.05</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
+        <v>0.105</v>
+      </c>
+      <c r="C11" s="34">
+        <v>26.718</v>
+      </c>
+      <c r="D11" s="34">
+        <v>26.806999999999999</v>
+      </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
@@ -1111,11 +1086,15 @@
       <c r="A12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="33">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="C12" s="33">
+        <v>29.81</v>
+      </c>
+      <c r="D12" s="33">
+        <v>29.92</v>
+      </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
@@ -1124,11 +1103,15 @@
       <c r="A13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="32"/>
+      <c r="B13" s="32">
+        <v>0.122</v>
+      </c>
+      <c r="C13" s="32">
+        <v>28.843</v>
+      </c>
+      <c r="D13" s="32">
+        <v>28.943000000000001</v>
+      </c>
       <c r="E13" s="27"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
@@ -1137,11 +1120,15 @@
       <c r="A14" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="33"/>
+      <c r="B14" s="33">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C14" s="33">
+        <v>30.013999999999999</v>
+      </c>
+      <c r="D14" s="33">
+        <v>30.106999999999999</v>
+      </c>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
@@ -1152,9 +1139,7 @@
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="34" t="s">
-        <v>41</v>
-      </c>
+      <c r="D15" s="34"/>
       <c r="E15" s="27"/>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
@@ -1163,12 +1148,14 @@
       <c r="A16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>41</v>
+      <c r="B16" s="33">
+        <v>0.161</v>
+      </c>
+      <c r="C16" s="33">
+        <v>25.565000000000001</v>
+      </c>
+      <c r="D16" s="33">
+        <v>25.69</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
@@ -1179,12 +1166,8 @@
         <v>20</v>
       </c>
       <c r="B17" s="32"/>
-      <c r="C17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>42</v>
-      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="27"/>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
@@ -1194,12 +1177,8 @@
         <v>21</v>
       </c>
       <c r="B18" s="33"/>
-      <c r="C18" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>41</v>
-      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="30"/>
@@ -1208,12 +1187,14 @@
       <c r="A19" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>42</v>
+      <c r="B19" s="32">
+        <v>0.187</v>
+      </c>
+      <c r="C19" s="32">
+        <v>24.666</v>
+      </c>
+      <c r="D19" s="32">
+        <v>24.802</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="31"/>
@@ -1223,12 +1204,14 @@
       <c r="A20" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>44</v>
+      <c r="B20" s="33">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C20" s="33">
+        <v>22.372</v>
+      </c>
+      <c r="D20" s="33">
+        <v>22.53</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
@@ -1260,6 +1243,15 @@
       <c r="A23" s="26" t="s">
         <v>26</v>
       </c>
+      <c r="B23" s="26">
+        <v>0.318</v>
+      </c>
+      <c r="C23" s="26">
+        <v>29.875</v>
+      </c>
+      <c r="D23" s="26">
+        <v>30.047000000000001</v>
+      </c>
       <c r="E23" s="27"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -1268,9 +1260,15 @@
       <c r="A24" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
+      <c r="B24" s="33">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="C24" s="33">
+        <v>30.273</v>
+      </c>
+      <c r="D24" s="33">
+        <v>30.446000000000002</v>
+      </c>
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
       <c r="G24" s="30"/>
@@ -1323,9 +1321,15 @@
       <c r="A29" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="B29" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="C29" s="32">
+        <v>20.785</v>
+      </c>
+      <c r="D29" s="32">
+        <v>20.962</v>
+      </c>
       <c r="E29" s="27"/>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
@@ -1334,9 +1338,15 @@
       <c r="A30" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="B30" s="33">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="C30" s="33">
+        <v>22.315999999999999</v>
+      </c>
+      <c r="D30" s="33">
+        <v>22.486000000000001</v>
+      </c>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
       <c r="G30" s="30"/>
@@ -1357,13 +1367,13 @@
         <v>35</v>
       </c>
       <c r="B32" s="33">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>36</v>
+        <v>0.219</v>
+      </c>
+      <c r="C32" s="33">
+        <v>29.898</v>
       </c>
       <c r="D32" s="33">
-        <v>26.801511822178799</v>
+        <v>30.07</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
@@ -1389,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1549,7 +1559,7 @@
       </c>
       <c r="B10" s="33" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t/>
         </is>
       </c>
       <c r="C10" s="33" t="inlineStr">
@@ -1569,7 +1579,7 @@
       </c>
       <c r="F10" s="29" t="inlineStr">
         <is>
-          <t>0.00043424</t>
+          <t/>
         </is>
       </c>
       <c r="G10" s="30" t="inlineStr">
@@ -1586,32 +1596,32 @@
       </c>
       <c r="B11" s="34" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.105</t>
         </is>
       </c>
       <c r="C11" s="34" t="inlineStr">
         <is>
-          <t/>
+          <t>26.718</t>
         </is>
       </c>
       <c r="D11" s="34" t="inlineStr">
         <is>
-          <t/>
+          <t>26.807</t>
         </is>
       </c>
       <c r="E11" s="26" t="inlineStr">
         <is>
-          <t/>
+          <t>0.089</t>
         </is>
       </c>
       <c r="F11" s="26" t="inlineStr">
         <is>
-          <t/>
+          <t>0.00056994</t>
         </is>
       </c>
       <c r="G11" s="26" t="inlineStr">
         <is>
-          <t/>
+          <t>0.00060913</t>
         </is>
       </c>
     </row>
@@ -1623,32 +1633,32 @@
       </c>
       <c r="B12" s="33" t="inlineStr">
         <is>
-          <t>0.079</t>
+          <t>0.136</t>
         </is>
       </c>
       <c r="C12" s="33" t="inlineStr">
         <is>
-          <t/>
+          <t>29.81</t>
         </is>
       </c>
       <c r="D12" s="33" t="inlineStr">
         <is>
-          <t/>
+          <t>29.92</t>
         </is>
       </c>
       <c r="E12" s="29" t="inlineStr">
         <is>
-          <t/>
+          <t>0.11</t>
         </is>
       </c>
       <c r="F12" s="29" t="inlineStr">
         <is>
-          <t/>
+          <t>0.000738208</t>
         </is>
       </c>
       <c r="G12" s="30" t="inlineStr">
         <is>
-          <t/>
+          <t>0.000752857</t>
         </is>
       </c>
     </row>
@@ -1660,32 +1670,32 @@
       </c>
       <c r="B13" s="32" t="inlineStr">
         <is>
-          <t/>
+          <t>0.122</t>
         </is>
       </c>
       <c r="C13" s="32" t="inlineStr">
         <is>
-          <t>25.005</t>
+          <t>28.843</t>
         </is>
       </c>
       <c r="D13" s="32" t="inlineStr">
         <is>
-          <t/>
+          <t>28.943</t>
         </is>
       </c>
       <c r="E13" s="27" t="inlineStr">
         <is>
-          <t/>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F13" s="31" t="inlineStr">
         <is>
-          <t/>
+          <t>0.000662216</t>
         </is>
       </c>
       <c r="G13" s="31" t="inlineStr">
         <is>
-          <t/>
+          <t>0.000684416</t>
         </is>
       </c>
     </row>
@@ -1697,32 +1707,32 @@
       </c>
       <c r="B14" s="33" t="inlineStr">
         <is>
-          <t/>
+          <t>0.116</t>
         </is>
       </c>
       <c r="C14" s="33" t="inlineStr">
         <is>
-          <t>-25.005</t>
+          <t>30.014</t>
         </is>
       </c>
       <c r="D14" s="33" t="inlineStr">
         <is>
-          <t/>
+          <t>30.107</t>
         </is>
       </c>
       <c r="E14" s="29" t="inlineStr">
         <is>
-          <t/>
+          <t>0.093</t>
         </is>
       </c>
       <c r="F14" s="29" t="inlineStr">
         <is>
-          <t/>
+          <t>0.000629648</t>
         </is>
       </c>
       <c r="G14" s="30" t="inlineStr">
         <is>
-          <t/>
+          <t>0.000636507</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1754,7 @@
       </c>
       <c r="D15" s="34" t="inlineStr">
         <is>
-          <t>25.001</t>
+          <t/>
         </is>
       </c>
       <c r="E15" s="27" t="inlineStr">
@@ -1771,32 +1781,32 @@
       </c>
       <c r="B16" s="33" t="inlineStr">
         <is>
-          <t/>
+          <t>0.161</t>
         </is>
       </c>
       <c r="C16" s="33" t="inlineStr">
         <is>
-          <t>-25.005</t>
+          <t>25.565</t>
         </is>
       </c>
       <c r="D16" s="33" t="inlineStr">
         <is>
-          <t>25.001</t>
+          <t>25.69</t>
         </is>
       </c>
       <c r="E16" s="29" t="inlineStr">
         <is>
-          <t/>
+          <t>0.125</t>
         </is>
       </c>
       <c r="F16" s="29" t="inlineStr">
         <is>
-          <t/>
+          <t>0.000873908</t>
         </is>
       </c>
       <c r="G16" s="30" t="inlineStr">
         <is>
-          <t/>
+          <t>0.00085552</t>
         </is>
       </c>
     </row>
@@ -1813,12 +1823,12 @@
       </c>
       <c r="C17" s="32" t="inlineStr">
         <is>
-          <t>-25.005</t>
+          <t/>
         </is>
       </c>
       <c r="D17" s="32" t="inlineStr">
         <is>
-          <t>-25.001</t>
+          <t/>
         </is>
       </c>
       <c r="E17" s="27" t="inlineStr">
@@ -1850,12 +1860,12 @@
       </c>
       <c r="C18" s="33" t="inlineStr">
         <is>
-          <t>26</t>
+          <t/>
         </is>
       </c>
       <c r="D18" s="33" t="inlineStr">
         <is>
-          <t>25.001</t>
+          <t/>
         </is>
       </c>
       <c r="E18" s="29" t="inlineStr">
@@ -1882,32 +1892,32 @@
       </c>
       <c r="B19" s="32" t="inlineStr">
         <is>
-          <t/>
+          <t>0.187</t>
         </is>
       </c>
       <c r="C19" s="32" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24.666</t>
         </is>
       </c>
       <c r="D19" s="32" t="inlineStr">
         <is>
-          <t>-25.001</t>
+          <t>24.802</t>
         </is>
       </c>
       <c r="E19" s="27" t="inlineStr">
         <is>
-          <t/>
+          <t>0.136</t>
         </is>
       </c>
       <c r="F19" s="31" t="inlineStr">
         <is>
-          <t/>
+          <t>0.001015036</t>
         </is>
       </c>
       <c r="G19" s="31" t="inlineStr">
         <is>
-          <t/>
+          <t>0.000930806</t>
         </is>
       </c>
     </row>
@@ -1919,32 +1929,32 @@
       </c>
       <c r="B20" s="33" t="inlineStr">
         <is>
-          <t/>
+          <t>0.205</t>
         </is>
       </c>
       <c r="C20" s="33" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22.372</t>
         </is>
       </c>
       <c r="D20" s="33" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22.53</t>
         </is>
       </c>
       <c r="E20" s="29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.158</t>
         </is>
       </c>
       <c r="F20" s="29" t="inlineStr">
         <is>
-          <t/>
+          <t>0.00111274</t>
         </is>
       </c>
       <c r="G20" s="30" t="inlineStr">
         <is>
-          <t>0.006844159</t>
+          <t>0.001081377</t>
         </is>
       </c>
     </row>
@@ -2028,34 +2038,34 @@
           <t>C-3</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t/>
+      <c r="B23" s="26" t="inlineStr">
+        <is>
+          <t>0.318</t>
+        </is>
+      </c>
+      <c r="C23" s="26" t="inlineStr">
+        <is>
+          <t>29.875</t>
+        </is>
+      </c>
+      <c r="D23" s="26" t="inlineStr">
+        <is>
+          <t>30.047</t>
         </is>
       </c>
       <c r="E23" s="27" t="inlineStr">
         <is>
-          <t/>
+          <t>0.172</t>
         </is>
       </c>
       <c r="F23" s="31" t="inlineStr">
         <is>
-          <t/>
+          <t>0.001726103</t>
         </is>
       </c>
       <c r="G23" s="31" t="inlineStr">
         <is>
-          <t/>
+          <t>0.001177195</t>
         </is>
       </c>
     </row>
@@ -2067,32 +2077,32 @@
       </c>
       <c r="B24" s="33" t="inlineStr">
         <is>
-          <t/>
+          <t>0.257</t>
         </is>
       </c>
       <c r="C24" s="33" t="inlineStr">
         <is>
-          <t/>
+          <t>30.273</t>
         </is>
       </c>
       <c r="D24" s="33" t="inlineStr">
         <is>
-          <t/>
+          <t>30.446</t>
         </is>
       </c>
       <c r="E24" s="29" t="inlineStr">
         <is>
-          <t/>
+          <t>0.173</t>
         </is>
       </c>
       <c r="F24" s="29" t="inlineStr">
         <is>
-          <t/>
+          <t>0.001394995</t>
         </is>
       </c>
       <c r="G24" s="30" t="inlineStr">
         <is>
-          <t/>
+          <t>0.001184039</t>
         </is>
       </c>
     </row>
@@ -2252,32 +2262,32 @@
       </c>
       <c r="B29" s="32" t="inlineStr">
         <is>
-          <t/>
+          <t>0.25</t>
         </is>
       </c>
       <c r="C29" s="32" t="inlineStr">
         <is>
-          <t/>
+          <t>20.785</t>
         </is>
       </c>
       <c r="D29" s="32" t="inlineStr">
         <is>
-          <t/>
+          <t>20.962</t>
         </is>
       </c>
       <c r="E29" s="27" t="inlineStr">
         <is>
-          <t/>
+          <t>0.177</t>
         </is>
       </c>
       <c r="F29" s="31" t="inlineStr">
         <is>
-          <t/>
+          <t>0.001356999</t>
         </is>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
-          <t/>
+          <t>0.001211416</t>
         </is>
       </c>
     </row>
@@ -2289,32 +2299,32 @@
       </c>
       <c r="B30" s="33" t="inlineStr">
         <is>
-          <t/>
+          <t>0.213</t>
         </is>
       </c>
       <c r="C30" s="33" t="inlineStr">
         <is>
-          <t/>
+          <t>22.316</t>
         </is>
       </c>
       <c r="D30" s="33" t="inlineStr">
         <is>
-          <t/>
+          <t>22.486</t>
         </is>
       </c>
       <c r="E30" s="29" t="inlineStr">
         <is>
-          <t/>
+          <t>0.17</t>
         </is>
       </c>
       <c r="F30" s="29" t="inlineStr">
         <is>
-          <t/>
+          <t>0.001156163</t>
         </is>
       </c>
       <c r="G30" s="30" t="inlineStr">
         <is>
-          <t/>
+          <t>0.001163507</t>
         </is>
       </c>
     </row>
@@ -2363,32 +2373,32 @@
       </c>
       <c r="B32" s="33" t="inlineStr">
         <is>
-          <t>0.081</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="C32" s="33" t="inlineStr">
         <is>
-          <t>26.718</t>
+          <t>29.898</t>
         </is>
       </c>
       <c r="D32" s="33" t="inlineStr">
         <is>
-          <t>26.8015118221788</t>
+          <t>30.07</t>
         </is>
       </c>
       <c r="E32" s="29" t="inlineStr">
         <is>
-          <t>0.083511822</t>
+          <t>0.172</t>
         </is>
       </c>
       <c r="F32" s="29" t="inlineStr">
         <is>
-          <t>0.000439668</t>
+          <t>0.001188731</t>
         </is>
       </c>
       <c r="G32" s="30" t="inlineStr">
         <is>
-          <t>0.000571568</t>
+          <t>0.001177195</t>
         </is>
       </c>
     </row>
